--- a/biology/Médecine/Classe_ATC_V06/Classe_ATC_V06.xlsx
+++ b/biology/Médecine/Classe_ATC_V06/Classe_ATC_V06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC V06, dénommée « Nutriments généraux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV06[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC V06, dénommée « Nutriments généraux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV06. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>V06AA Régimes hypocaloriques
-Vide.</t>
+          <t>V06AA Régimes hypocaloriques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vide.</t>
         </is>
       </c>
     </row>
@@ -542,7 +559,9 @@
           <t>V06B Suppléments protéiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vide.</t>
         </is>
@@ -574,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>V06CA Nutriments sans phénylalanine
-Vide.</t>
+          <t>V06CA Nutriments sans phénylalanine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vide.</t>
         </is>
       </c>
     </row>
@@ -605,21 +629,230 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>V06DA Hydrate de carbone/protéines/minéraux/vitamines, associations
-Vide.
-V06DB Lipides/hydrates de carbone/protéines/minéraux/vitamines, associations
-Vide.
-V06DC Hydrates de carbone
-V06DC01 Glucose
-V06DC02 Fructose
-V06DD Acides aminés, incluant associations avec polypeptides
-Vide.
-V06DE Acides aminés/hydrates de carbone/minéraux/vitamines, associations
-Vide.
-V06DF Substituts du lait
-Vide.
-V06DX Autres associations de nutriments
-Vide.</t>
+          <t>V06DA Hydrate de carbone/protéines/minéraux/vitamines, associations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>V06D Autres nutriments</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V06DB Lipides/hydrates de carbone/protéines/minéraux/vitamines, associations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V06D Autres nutriments</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V06DC Hydrates de carbone</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>V06DC01 Glucose
+V06DC02 Fructose</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V06D Autres nutriments</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V06DD Acides aminés, incluant associations avec polypeptides</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V06D Autres nutriments</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V06DE Acides aminés/hydrates de carbone/minéraux/vitamines, associations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>V06D Autres nutriments</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V06DF Substituts du lait</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>V06D Autres nutriments</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V06DX Autres associations de nutriments</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Vide.</t>
         </is>
       </c>
     </row>
